--- a/doc/程序说明文档.xlsx
+++ b/doc/程序说明文档.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="流程" sheetId="1" r:id="rId1"/>
-    <sheet name="微信登录" sheetId="4" r:id="rId2"/>
-    <sheet name="协议" sheetId="3" r:id="rId3"/>
-    <sheet name="方法实现" sheetId="2" r:id="rId4"/>
+    <sheet name="协议" sheetId="3" r:id="rId2"/>
+    <sheet name="方法实现" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>client http 获取可用的client服务器地址，三个接口，1，获取最优服务器地址，2，获取最优服务器地址，排除某些服务器，3，获取所有服务器地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,28 +107,6 @@
   </si>
   <si>
     <t>client连接后，第一条消息一定是登录注册的消息，其他消息拦截，消息携带topic和siteUrl，数据库保证用户在线的唯一性，也可做查重效果，防止恶意连接，若担心压力大，可将登录注册数据库与其他数据库分开，保证系统隔离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appID</t>
-  </si>
-  <si>
-    <t>appsecret</t>
-  </si>
-  <si>
-    <t>gh_a7a1bd532735</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxfd742b82fb720f0b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96c2b95301ff999afa78f37e0fa5b4e5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +197,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -244,27 +214,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,7 +695,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -748,12 +703,12 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -761,12 +716,12 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -774,12 +729,12 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -787,12 +742,12 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -800,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -808,12 +763,12 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -821,12 +776,12 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -834,12 +789,12 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -847,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -858,50 +813,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -921,7 +832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
